--- a/data/trans_dic/P56$nadie-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$nadie-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,16</t>
+          <t>0,0; 57,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,12 +750,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 33,17</t>
+          <t>4,5; 33,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,4</t>
+          <t>0,0; 34,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +765,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,32</t>
+          <t>0,0; 63,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 31,81</t>
+          <t>3,48; 31,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,75</t>
+          <t>0,0; 24,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,11</t>
+          <t>0,0; 40,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,12 +885,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,03</t>
+          <t>0,0; 41,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,15</t>
+          <t>0,0; 17,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 11,28</t>
+          <t>1,37; 11,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,73</t>
+          <t>0,0; 31,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 16,69</t>
+          <t>1,85; 15,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,14 +920,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,58</t>
+          <t>1,07; 8,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1019,12 +1020,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,42</t>
+          <t>0,0; 17,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,96</t>
+          <t>0,0; 46,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,12 +1040,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 16,09</t>
+          <t>2,94; 17,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,4</t>
+          <t>0,0; 34,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 13,23</t>
+          <t>2,78; 12,76</t>
         </is>
       </c>
     </row>
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,05</t>
+          <t>0,0; 25,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,39</t>
+          <t>0,0; 61,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,86</t>
+          <t>0,0; 27,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,01; 59,76</t>
+          <t>15,62; 60,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,62</t>
+          <t>0,0; 10,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,06</t>
+          <t>0,0; 49,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,76</t>
+          <t>0,0; 18,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 45,97</t>
+          <t>11,56; 45,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,92</t>
+          <t>0,0; 12,14</t>
         </is>
       </c>
     </row>
@@ -1309,17 +1310,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 43,11</t>
+          <t>4,6; 41,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,46</t>
+          <t>0,0; 54,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,78</t>
+          <t>0,0; 15,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,24 +1330,24 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 34,78</t>
+          <t>4,16; 33,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,12</t>
+          <t>0,0; 42,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,72</t>
+          <t>0,0; 9,66</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,94</t>
+          <t>0,0; 45,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,0; 26,64</t>
+          <t>4,8; 27,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 35,9</t>
+          <t>4,3; 38,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,49; 17,96</t>
+          <t>4,71; 16,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,19 +1475,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,43; 33,41</t>
+          <t>5,84; 34,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,04; 17,84</t>
+          <t>6,16; 17,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,96; 47,69</t>
+          <t>4,81; 46,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,06</t>
+          <t>0,0; 36,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,17 +1595,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,9; 34,86</t>
+          <t>7,78; 33,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 11,95</t>
+          <t>0,39; 10,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,64</t>
+          <t>0,0; 40,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,87; 31,7</t>
+          <t>9,92; 31,61</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 11,73</t>
+          <t>1,76; 12,61</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1705,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,34; 41,84</t>
+          <t>4,41; 40,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1719,47 +1720,47 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,97</t>
+          <t>0,0; 12,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,32</t>
+          <t>0,0; 25,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,53; 30,29</t>
+          <t>3,54; 26,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,73; 44,72</t>
+          <t>5,95; 48,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,44</t>
+          <t>0,88; 7,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,03; 23,11</t>
+          <t>5,03; 23,14</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 23,61</t>
+          <t>2,75; 21,95</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,07; 34,94</t>
+          <t>4,17; 32,27</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,13</t>
+          <t>0,7; 7,22</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 16,18</t>
+          <t>1,92; 16,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,11</t>
+          <t>0,0; 8,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,2; 16,8</t>
+          <t>2,53; 18,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 9,06</t>
+          <t>2,76; 9,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,9; 18,45</t>
+          <t>5,73; 20,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,64; 10,89</t>
+          <t>3,53; 10,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,01; 23,89</t>
+          <t>10,35; 23,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,91</t>
+          <t>3,05; 6,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,42; 15,18</t>
+          <t>5,37; 15,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,49</t>
+          <t>3,05; 8,75</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>9,5; 19,46</t>
+          <t>9,94; 19,5</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,69</t>
+          <t>3,36; 6,6</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que no le ayuda nadie cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2941</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3935</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1276</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4079</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1441</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1169</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2400</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>956; 7040</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6412</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 973</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3746</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>986; 9035</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7019</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1096</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2250</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1778</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2250</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1778</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1599</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4739</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1449</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1538</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6135</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6618</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2404</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>574; 4614</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6814</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>899; 7366</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2212</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>581; 4764</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2643</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3275</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1303</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1397</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3124</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5693</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2236</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>987; 5830</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5228</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1986</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1443; 6615</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2233</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8906</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2233</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8906</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1146</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1802</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1570</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2393</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6639</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6095</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3893; 15112</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2139</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6589</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5725</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4039; 15791</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3527</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1131</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1131</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1309</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1772</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 616</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 887</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1854</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>907; 8107</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6560</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2599</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1783</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1097; 8821</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5457</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2326</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2243</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3507</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3048</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5125</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5291</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1336</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1819</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4922</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>793; 4496</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1976</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1917</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>950; 8535</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1497; 5275</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1920</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1960</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1922; 11209</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2973; 8397</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>7940</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>12154</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2814</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1370</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>959; 9284</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4532</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2965</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3338; 14502</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>162; 4332</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3711</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2165</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6233; 19869</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>958; 6853</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2251</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3428</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4962</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>5620</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>3428</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>4962</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2240</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>848; 7726</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2066</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1706</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2629</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7487</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1065; 8073</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1355; 11098</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>504; 4284</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2474; 11373</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1069; 8548</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1329; 10283</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>548; 5638</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>5831</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>5552</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>10022</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>13452</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>28613</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>11582</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>13391</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>15508</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>34444</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>17135</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>928; 7867</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0; 6377</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1821; 13312</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2819; 9681</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>5358; 18907</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>7240; 22002</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>17776; 40263</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>7666; 16643</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>7614; 21970</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>8668; 24828</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>24249; 47560</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>11872; 23313</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>